--- a/results/benchmarking-data.xlsx
+++ b/results/benchmarking-data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Visual Studio 2017\PRNG\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,9 +566,6 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="E19">
-        <v>335544320</v>
-      </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
@@ -592,11 +589,11 @@
         <v>14</v>
       </c>
       <c r="B21">
-        <v>0.16641500000000001</v>
+        <v>49.595534800000003</v>
       </c>
       <c r="C21" s="3">
-        <f>E19/B21</f>
-        <v>2016310548.9288826</v>
+        <f>E1/B21</f>
+        <v>2016310548.9891803</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -604,11 +601,11 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>9.4619999999999999E-3</v>
+        <v>2.8198957400000002</v>
       </c>
       <c r="C22" s="3">
-        <f>E19/B22</f>
-        <v>35462303952.652718</v>
+        <f>E1/B22</f>
+        <v>35462304007.026871</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -619,11 +616,11 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>7.5979999999999997E-3</v>
+        <v>2.2643804599999999</v>
       </c>
       <c r="C23" s="3">
-        <f>E19/B23</f>
-        <v>44162190050.013161</v>
+        <f>E1/B23</f>
+        <v>44162189952.831512</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -650,7 +647,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G4" sqref="G4:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1647.502</v>
+        <v>559.07100000000003</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1217,11 +1214,17 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>494.762</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2250.0720000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1232,7 +1235,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>353.91899999999998</v>
+        <v>112.03400000000001</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1240,12 +1243,18 @@
       <c r="F5">
         <v>5</v>
       </c>
+      <c r="G5">
+        <v>111.90300000000001</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
+      <c r="K5">
+        <v>1374.5889999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1255,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>187.934</v>
+        <v>56.463999999999999</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1263,12 +1272,18 @@
       <c r="F6">
         <v>10</v>
       </c>
+      <c r="G6">
+        <v>65.222999999999999</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
         <v>10</v>
       </c>
+      <c r="K6">
+        <v>1475.45</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1278,7 +1293,7 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>125.536</v>
+        <v>44.222000000000001</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1286,12 +1301,18 @@
       <c r="F7">
         <v>15</v>
       </c>
+      <c r="G7">
+        <v>45.677</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
         <v>15</v>
       </c>
+      <c r="K7">
+        <v>1482.4469999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1301,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>94.402000000000001</v>
+        <v>41.804000000000002</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1309,12 +1330,18 @@
       <c r="F8">
         <v>20</v>
       </c>
+      <c r="G8">
+        <v>37.46</v>
+      </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
         <v>20</v>
       </c>
+      <c r="K8">
+        <v>1811.979</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1324,7 +1351,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>75.641000000000005</v>
+        <v>41.45</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1332,12 +1359,18 @@
       <c r="F9">
         <v>25</v>
       </c>
+      <c r="G9">
+        <v>32.296999999999997</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
         <v>25</v>
       </c>
+      <c r="K9">
+        <v>2315.9670000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1347,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>68.281000000000006</v>
+        <v>41.853999999999999</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1355,12 +1388,18 @@
       <c r="F10">
         <v>28</v>
       </c>
+      <c r="G10">
+        <v>31.207000000000001</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
         <v>28</v>
       </c>
+      <c r="K10">
+        <v>2624.61</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1370,7 +1409,7 @@
         <v>28</v>
       </c>
       <c r="C11">
-        <v>68.617000000000004</v>
+        <v>21.616</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1378,12 +1417,18 @@
       <c r="F11">
         <v>28</v>
       </c>
+      <c r="G11">
+        <v>30.596</v>
+      </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11">
         <v>28</v>
       </c>
+      <c r="K11">
+        <v>1281.97</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1393,7 +1438,7 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>64.287999999999997</v>
+        <v>20.439</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1401,12 +1446,18 @@
       <c r="F12">
         <v>30</v>
       </c>
+      <c r="G12">
+        <v>29.263000000000002</v>
+      </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12">
         <v>30</v>
       </c>
+      <c r="K12">
+        <v>1274.9110000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1416,7 +1467,7 @@
         <v>35</v>
       </c>
       <c r="C13">
-        <v>55.045999999999999</v>
+        <v>16.914999999999999</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1424,12 +1475,18 @@
       <c r="F13">
         <v>35</v>
       </c>
+      <c r="G13">
+        <v>26.465</v>
+      </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13">
         <v>35</v>
       </c>
+      <c r="K13">
+        <v>1265.3150000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1439,7 +1496,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>48.566000000000003</v>
+        <v>15.009</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1447,12 +1504,18 @@
       <c r="F14">
         <v>40</v>
       </c>
+      <c r="G14">
+        <v>24.867000000000001</v>
+      </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14">
         <v>40</v>
       </c>
+      <c r="K14">
+        <v>1267.943</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1462,7 +1525,7 @@
         <v>45</v>
       </c>
       <c r="C15">
-        <v>43.301000000000002</v>
+        <v>13.47</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1470,12 +1533,18 @@
       <c r="F15">
         <v>45</v>
       </c>
+      <c r="G15">
+        <v>23.029</v>
+      </c>
       <c r="I15">
         <v>2</v>
       </c>
       <c r="J15">
         <v>45</v>
       </c>
+      <c r="K15">
+        <v>1259.394</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1485,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>39.051000000000002</v>
+        <v>12.596</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1493,14 +1562,20 @@
       <c r="F16">
         <v>50</v>
       </c>
+      <c r="G16">
+        <v>21.215</v>
+      </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1251.9829999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1508,7 +1583,7 @@
         <v>55</v>
       </c>
       <c r="C17">
-        <v>35.734000000000002</v>
+        <v>11.114000000000001</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1516,14 +1591,20 @@
       <c r="F17">
         <v>55</v>
       </c>
+      <c r="G17">
+        <v>19.169</v>
+      </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>1245.6220000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1531,7 +1612,7 @@
         <v>56</v>
       </c>
       <c r="C18">
-        <v>35.4</v>
+        <v>11.132999999999999</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1539,11 +1620,17 @@
       <c r="F18">
         <v>56</v>
       </c>
+      <c r="G18">
+        <v>19.323</v>
+      </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
         <v>56</v>
+      </c>
+      <c r="K18">
+        <v>1246.712</v>
       </c>
     </row>
   </sheetData>

--- a/results/benchmarking-data.xlsx
+++ b/results/benchmarking-data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="1" r:id="rId1"/>
     <sheet name="mpi" sheetId="2" r:id="rId2"/>
     <sheet name="mode" sheetId="3" r:id="rId3"/>
+    <sheet name="linear" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>g</t>
   </si>
@@ -1144,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,4 +1637,255 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G6">
+        <v>10000</v>
+      </c>
+      <c r="H6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100000</v>
+      </c>
+      <c r="B7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D7">
+        <v>100000</v>
+      </c>
+      <c r="E7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G7">
+        <v>100000</v>
+      </c>
+      <c r="H7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1000000</v>
+      </c>
+      <c r="B8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>1000000</v>
+      </c>
+      <c r="E8">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G8">
+        <v>1000000</v>
+      </c>
+      <c r="H8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10000000</v>
+      </c>
+      <c r="B9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D9">
+        <v>10000000</v>
+      </c>
+      <c r="E9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>10000000</v>
+      </c>
+      <c r="H9">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100000000</v>
+      </c>
+      <c r="B10">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D10">
+        <v>100000000</v>
+      </c>
+      <c r="E10">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="G10">
+        <v>100000000</v>
+      </c>
+      <c r="H10">
+        <v>2.7170000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1000000000</v>
+      </c>
+      <c r="B11">
+        <v>9.2070000000000007</v>
+      </c>
+      <c r="D11">
+        <v>1000000000</v>
+      </c>
+      <c r="E11">
+        <v>5.6769999999999996</v>
+      </c>
+      <c r="G11">
+        <v>1000000000</v>
+      </c>
+      <c r="H11">
+        <v>27.117999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10000000000</v>
+      </c>
+      <c r="B12">
+        <v>91.863</v>
+      </c>
+      <c r="D12">
+        <v>10000000000</v>
+      </c>
+      <c r="E12">
+        <v>56.795999999999999</v>
+      </c>
+      <c r="G12">
+        <v>10000000000</v>
+      </c>
+      <c r="H12">
+        <v>267.94400000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100000000000</v>
+      </c>
+      <c r="B13">
+        <v>876.14</v>
+      </c>
+      <c r="D13">
+        <v>100000000000</v>
+      </c>
+      <c r="E13">
+        <v>540.63499999999999</v>
+      </c>
+      <c r="G13">
+        <v>100000000000</v>
+      </c>
+      <c r="H13">
+        <v>2511.625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>